--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_175.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_175.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,384 +488,409 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1257352941176471</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A', 'B', 'E'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
+          <t>[['F', 'G', 'C'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:16.934081', '0:01:35.417165'), ('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:31.666780', '0:00:36.693900'), ('0:00:23.586235', '0:00:28.578526')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.08, 30.02)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.42, 45.54)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_60</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1152482269503546</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['F/3', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82)]</t>
+          <t>[('0:02:15.871449', '0:02:18.803650')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.980790', '0:00:05.421882')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.1, 69.0)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.1, 27.92)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:04:13.840000', '0:04:17.600000'), ('0:04:12.620000', '0:04:15.040000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:16.040000', '0:00:18.720000'), ('0:00:06.560000', '0:00:12.600000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min'], ['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min'], ['C:min', 'F:min', 'C:min/5']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(45.76, 53.56), (12.82, 19.18)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(156.152, 159.022), (84.323, 87.713)]</t>
+          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1441176470588235</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:06.980000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -868,265 +898,254 @@
           <t>schubert-winterreise_73</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'E:7', 'F']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:7/C', 'D#:maj/A#']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(53.673, 60.522)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.78, 62.36)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (8.46, 13.46), (43.34, 59.34), (0.24, 5.08)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(23.86, 29.36), (23.3, 26.86), (262.92, 266.9), (12.28, 17.3)]</t>
+          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(75.58, 86.06), (74.4, 81.68)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54), (19.14, 22.24)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.2, 16.36)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(64.52, 66.82)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(132.3, 136.56)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(64.3, 67.9)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.46, 21.82)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(55.18, 62.06), (81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(69.36, 73.2), (8.54, 14.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
